--- a/ig/ch-vacd/ValueSet-ch-vacd-risks-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-risks-vs.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T09:30:51+01:00</t>
+    <t>2023-12-28T11:15:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-risks-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-risks-vs.xlsx
@@ -33,13 +33,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: ch-vacd-risks-vs (use: OFFICIAL)</t>
+    <t>http://e-health-suisse.ch/ns/vs#ch-vacd-risks-vs (use: official)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:15:40+01:00</t>
+    <t>2024-05-17T07:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-risks-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-risks-vs.xlsx
@@ -7,10 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include ValueSets 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include ValueSets 4" r:id="rId7" sheetId="5"/>
+    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSet #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSet #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include ValueSet #3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
@@ -33,13 +33,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>http://e-health-suisse.ch/ns/vs#ch-vacd-risks-vs (use: official)</t>
+    <t>http://e-health-suisse.ch/ns/vs#ch-vacd-risks-vs (use: official, )</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:15:18+00:00</t>
+    <t>2024-12-18T07:33:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-risks-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-risks-vs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,16 +30,10 @@
     <t>http://fhir.ch/ig/ch-vacd/ValueSet/ch-vacd-risks-vs</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>http://e-health-suisse.ch/ns/vs#ch-vacd-risks-vs (use: official, )</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T07:33:04+00:00</t>
+    <t>2025-05-22T09:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -367,15 +361,15 @@
       <c r="A13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -383,14 +377,6 @@
       </c>
       <c r="B15" t="s" s="2">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -412,12 +398,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -439,12 +425,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -466,12 +452,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -493,12 +479,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-vacd/ValueSet-ch-vacd-risks-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-risks-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T09:46:13+00:00</t>
+    <t>2025-12-16T10:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
